--- a/data/hotels_by_city/Denver/Denver_shard_33.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_33.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d1146321-Reviews-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Cottonwood-Suites-Westminster.h2058983.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522716029830&amp;vip=false&amp;c=08d1d649-3a8b-4ae3-ac9b-46b53941fa4e&amp;mctc=9&amp;exp_dp=68.43&amp;exp_ts=1522716030392&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,213 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r599004887-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>1146321</t>
+  </si>
+  <si>
+    <t>599004887</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Works for me.</t>
+  </si>
+  <si>
+    <t>This is not a fancy place, but it does work for me. The place is very clean, and the staff are friendly. The breakfast was a bit disappointing as the sausages were rock hard and not editable. My room was very clean and had a coffee maker. I thought the room was priced well. There are better but not at this price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This is not a fancy place, but it does work for me. The place is very clean, and the staff are friendly. The breakfast was a bit disappointing as the sausages were rock hard and not editable. My room was very clean and had a coffee maker. I thought the room was priced well. There are better but not at this price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r597758743-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>597758743</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>3 Night Stay</t>
+  </si>
+  <si>
+    <t>I recently checked out of Cottonwood Suites after a 3 night stay.  Most of the staff was quite friendly and helpful, we ran into some who seemed to be overwhelmed.  Based on the breakfast crowd, I’d say the hotel was pretty booked.  Breakfast has both hot and cold options, a coffee/cappuccino maker; plenty of options for everyone. Our room was on the third floor.  Nothing super fancy, the kitchen was a nice bonus and large bathroom.  There’s one elevator in the middle, and two stairwells at each end of the building.  We used the stairs, except for unloading and loading our belongings. Checking in was fine, the girl working the desk seemed overwhelmed and cranky.  Checking out was more pleasant with friendlier staff.  Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently checked out of Cottonwood Suites after a 3 night stay.  Most of the staff was quite friendly and helpful, we ran into some who seemed to be overwhelmed.  Based on the breakfast crowd, I’d say the hotel was pretty booked.  Breakfast has both hot and cold options, a coffee/cappuccino maker; plenty of options for everyone. Our room was on the third floor.  Nothing super fancy, the kitchen was a nice bonus and large bathroom.  There’s one elevator in the middle, and two stairwells at each end of the building.  We used the stairs, except for unloading and loading our belongings. Checking in was fine, the girl working the desk seemed overwhelmed and cranky.  Checking out was more pleasant with friendlier staff.  Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r594913356-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>594913356</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Rude service included in inexpensive price</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times for work and put up with the obnoxious service and inconsistent housekeeping since it's much less expensive than other hotels in the area and, props where they're due, the best Internet of any place I've stayed.  My last time out though will be my last since the management has seen fit to cover up for their poor service and incompetence by lying about and bad mouthing my family.  I thought it was just me, but my coworkers complained about the poor service there as well and I felt awful since I was the one who got them to stay there.  Needless to say, when the owners/management have no problem lying about a guest in an effort to make themselves look…better, then, well, other areas can become suspect. I should note that during the time at which my coworkers stayed (and which I was supposed to stay) the hotel didn't have water at one point due to a building maintenance issue, but people were still checking in.  I suppose in the end the rude service doesn't matter since the price is so cheap that the place doesn't even have to have water in order to get people to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times for work and put up with the obnoxious service and inconsistent housekeeping since it's much less expensive than other hotels in the area and, props where they're due, the best Internet of any place I've stayed.  My last time out though will be my last since the management has seen fit to cover up for their poor service and incompetence by lying about and bad mouthing my family.  I thought it was just me, but my coworkers complained about the poor service there as well and I felt awful since I was the one who got them to stay there.  Needless to say, when the owners/management have no problem lying about a guest in an effort to make themselves look…better, then, well, other areas can become suspect. I should note that during the time at which my coworkers stayed (and which I was supposed to stay) the hotel didn't have water at one point due to a building maintenance issue, but people were still checking in.  I suppose in the end the rude service doesn't matter since the price is so cheap that the place doesn't even have to have water in order to get people to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r586040213-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>586040213</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Visiting Denver</t>
+  </si>
+  <si>
+    <t>Very sterile in appearance. Staff friendly and accommodating. Nice fridge microwave and sink. Seemed clean. Laundry needs a machine that make change in quarters from bills. Cookies in the afternoon. Breakfast different every day.  Good variety. Not sure about the bill. Booked on line. Online said no refunds. We are checking out one day early so will see about refund. Front desk person said that they always refunded for cancellation. Will seeParking is great!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Very sterile in appearance. Staff friendly and accommodating. Nice fridge microwave and sink. Seemed clean. Laundry needs a machine that make change in quarters from bills. Cookies in the afternoon. Breakfast different every day.  Good variety. Not sure about the bill. Booked on line. Online said no refunds. We are checking out one day early so will see about refund. Front desk person said that they always refunded for cancellation. Will seeParking is great!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r585393902-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>585393902</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>AMAZING!!!</t>
+  </si>
+  <si>
+    <t>This was an amazing hotel to stay at. It was very clean, the staff was friendly and the breakfast was delicious. I would recommend staying here and I would gladly stay here again. I was very impressed!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>This was an amazing hotel to stay at. It was very clean, the staff was friendly and the breakfast was delicious. I would recommend staying here and I would gladly stay here again. I was very impressed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r583199930-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>583199930</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>small but comfy</t>
+  </si>
+  <si>
+    <t>nice room but small. clean room , very good breakfast changes daily, after paying, in advance, for the room I had to put down a $75 room deposit in case of damage.??? I was told if there was no damage the deposit would be returned in 4 days. (is that something new). wish i would have made them inspect the room before I left it. other than that I would stay there again. Had a couple small issues , the door safety lock didn't work and there is a lack of available outlets for electronic chargers.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>nice room but small. clean room , very good breakfast changes daily, after paying, in advance, for the room I had to put down a $75 room deposit in case of damage.??? I was told if there was no damage the deposit would be returned in 4 days. (is that something new). wish i would have made them inspect the room before I left it. other than that I would stay there again. Had a couple small issues , the door safety lock didn't work and there is a lack of available outlets for electronic chargers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r582744442-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>582744442</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>They were very pleasant I was extremely late and they were very receiving the rooms were clean and the people there were extremely nice their breakfast were amazing thank you. Did not expect scrambled eggs sausage waffles cereal it was just really good and the price was amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r582058093-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>582058093</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good value </t>
+  </si>
+  <si>
+    <t>This is a nice hotel so far. Good sized, clean room and free breakfast. The front desk gal was super helpful. Great value and not a big chain. It's just for a couple of days and is a good deal compared to other hotels nearby. We would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>This is a nice hotel so far. Good sized, clean room and free breakfast. The front desk gal was super helpful. Great value and not a big chain. It's just for a couple of days and is a good deal compared to other hotels nearby. We would definitely stay again. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +745,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +777,577 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_33.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_33.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,216 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r612346406-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>1146321</t>
+  </si>
+  <si>
+    <t>612346406</t>
+  </si>
+  <si>
+    <t>It Worked</t>
+  </si>
+  <si>
+    <t>Travelling through Westminster on vacation, we extended our stay one extra day.We had booked at another hotel, but they increased the rate very much for the extraday. So we changed reservations, and the Cottonwood, across the street from the other hotel. was able to accomodate us. The room was simple, but pleasant. The bed worked- what else can I say !</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r581840283-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>581840283</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service and Room!!</t>
+  </si>
+  <si>
+    <t>Last night was our first time to stay at a Cottonwood Suites establishment and based upon the incredibly accommodating staff - especially Ashley and Amanda. They went above and beyond in helping me submit our rental contracts...THANK YOU again, you’re both awesome.  Our room was clean, and comfortable even though our heater/air conditioner barely worked.  The shower was perfect...plenty of hot water with a strong yet calming spray; perfect way to end a stressful day. Breakfast was okay in only that the hot meal were those fake eggs, you know those folded stuffed omelets but the bacon was crisp and plentiful. We will definitely stay again next time in Denver. Thank you Ashley and Amanda again. Also my check in with Arizona was efficient and he was super friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Last night was our first time to stay at a Cottonwood Suites establishment and based upon the incredibly accommodating staff - especially Ashley and Amanda. They went above and beyond in helping me submit our rental contracts...THANK YOU again, you’re both awesome.  Our room was clean, and comfortable even though our heater/air conditioner barely worked.  The shower was perfect...plenty of hot water with a strong yet calming spray; perfect way to end a stressful day. Breakfast was okay in only that the hot meal were those fake eggs, you know those folded stuffed omelets but the bacon was crisp and plentiful. We will definitely stay again next time in Denver. Thank you Ashley and Amanda again. Also my check in with Arizona was efficient and he was super friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r609030624-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>609030624</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Cramped quarters</t>
+  </si>
+  <si>
+    <t>We stayed at the Cottonwoods Suites for 4 nights while exploring the Denver area. The facility was clean and well maintained. Staff was friendly and courteous. However, due to the fact they could not get the number of towels and face cloths correct over 4 day leads me to believe they were either inept or uncaring.The room was a suite with 2 queen beds and a small kitchen area which had an apartment size refrigerator, a sink and a few cabinets but no dishes or utensils. The room was very cramped with no room to leave our luggage open. With someone setting at the desk it was impossible to get from one end of the room to the other. The closet was very small for 4 people. The bath area was good size but the vanity was so small (31 inches) there was no room for shaving kit or makeup kit. There was only one mirror in the bath area so if I was showering my wife could not do her makeup. There was only one elevator and one ice machine for 4 floors. The breakfast each morning was great with good variety. I am lowering my rating due to the cramped conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>We stayed at the Cottonwoods Suites for 4 nights while exploring the Denver area. The facility was clean and well maintained. Staff was friendly and courteous. However, due to the fact they could not get the number of towels and face cloths correct over 4 day leads me to believe they were either inept or uncaring.The room was a suite with 2 queen beds and a small kitchen area which had an apartment size refrigerator, a sink and a few cabinets but no dishes or utensils. The room was very cramped with no room to leave our luggage open. With someone setting at the desk it was impossible to get from one end of the room to the other. The closet was very small for 4 people. The bath area was good size but the vanity was so small (31 inches) there was no room for shaving kit or makeup kit. There was only one mirror in the bath area so if I was showering my wife could not do her makeup. There was only one elevator and one ice machine for 4 floors. The breakfast each morning was great with good variety. I am lowering my rating due to the cramped conditions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r606886620-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>606886620</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Great amenities for the price</t>
+  </si>
+  <si>
+    <t>First time staying at cottonwood suites and we were pleasantly surprised with the kitchenette and room size and breakfast for the price paid. Breakfast included scrambled eggs, bacon, choices of cereals, toasts n other items. The kitchen units do not have plates or utensils so be prepared for that in case you are here for extended stay. Walls are very thin and hence noisy. Really need to work on that. Staff is very good to work with and accommodating as well. You can walk close by to grab dinner. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>First time staying at cottonwood suites and we were pleasantly surprised with the kitchenette and room size and breakfast for the price paid. Breakfast included scrambled eggs, bacon, choices of cereals, toasts n other items. The kitchen units do not have plates or utensils so be prepared for that in case you are here for extended stay. Walls are very thin and hence noisy. Really need to work on that. Staff is very good to work with and accommodating as well. You can walk close by to grab dinner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r604839776-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>604839776</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy at night </t>
+  </si>
+  <si>
+    <t>Would have given it much higher rating if it wasn’t for the late night noise. The rooms have very poor insulation and the doors are very noisy. Being close to the back entrance did not help. Otherwise - nice room. Decent location. Excellent breakfast, the hot food varies, and even included chorizo and eggs tortillas one morning, and warm cinnamon rolls. A lot of choices. Few charging outlets and hard to get to, except in the kitchenette. Service is “millennial”. Overall, would stay again during a 1/2 price promotion, but would ask for a 2nd or 3rd floor room. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Would have given it much higher rating if it wasn’t for the late night noise. The rooms have very poor insulation and the doors are very noisy. Being close to the back entrance did not help. Otherwise - nice room. Decent location. Excellent breakfast, the hot food varies, and even included chorizo and eggs tortillas one morning, and warm cinnamon rolls. A lot of choices. Few charging outlets and hard to get to, except in the kitchenette. Service is “millennial”. Overall, would stay again during a 1/2 price promotion, but would ask for a 2nd or 3rd floor room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r604080711-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>604080711</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Cottonwoods: competent but nothing special</t>
+  </si>
+  <si>
+    <t>Cottonwood Suites is located in a commercial district with many corporations around. No restaurants, gas stations or movie theaters. Plan on staying in for the night once you get there. Laundry services, but they had no soap for purchase. No one offered to run out and get some for us. So much for customer service.Room, lobby, breakfast nothing special, but it was clean and had the expected amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cottonwood Suites is located in a commercial district with many corporations around. No restaurants, gas stations or movie theaters. Plan on staying in for the night once you get there. Laundry services, but they had no soap for purchase. No one offered to run out and get some for us. So much for customer service.Room, lobby, breakfast nothing special, but it was clean and had the expected amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r602158408-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>602158408</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Peace and quiet stay</t>
+  </si>
+  <si>
+    <t>Came for business and leisure. Need a place to stay for a week that allow pets and have a kitchenette. Did a research and found Cottonwood Suites. My room was right across from the breakfast area so I was worried about the noise. Well I was wrong! This place is so quiet. Very safe area to walk your dog. Only amenity missing is an electric rangeMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Came for business and leisure. Need a place to stay for a week that allow pets and have a kitchenette. Did a research and found Cottonwood Suites. My room was right across from the breakfast area so I was worried about the noise. Well I was wrong! This place is so quiet. Very safe area to walk your dog. Only amenity missing is an electric rangeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r599730918-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>599730918</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, not great </t>
+  </si>
+  <si>
+    <t>This hotel is adequate and clean, but basic. The walls are very thin and the other guests were slamming doors most of the night. I liked the kitchenette which was convenient and saved me money on food. This place is pretty far from the airport. If you can rent a car, parking is plentiful and there are nearby restaurants but it’s not a safe walking environment. The air conditioning was not very strong even on full blast, but everything else in the room worked fine. The breakfast provided was ok, but more continental than comprehensive. I booked directly with the hotel online and had no issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is adequate and clean, but basic. The walls are very thin and the other guests were slamming doors most of the night. I liked the kitchenette which was convenient and saved me money on food. This place is pretty far from the airport. If you can rent a car, parking is plentiful and there are nearby restaurants but it’s not a safe walking environment. The air conditioning was not very strong even on full blast, but everything else in the room worked fine. The breakfast provided was ok, but more continental than comprehensive. I booked directly with the hotel online and had no issues. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r599004887-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
-    <t>33691</t>
-  </si>
-  <si>
-    <t>1146321</t>
-  </si>
-  <si>
     <t>599004887</t>
   </si>
   <si>
@@ -171,16 +369,10 @@
     <t>This is not a fancy place, but it does work for me. The place is very clean, and the staff are friendly. The breakfast was a bit disappointing as the sausages were rock hard and not editable. My room was very clean and had a coffee maker. I thought the room was priced well. There are better but not at this price point.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
   </si>
   <si>
     <t>This is not a fancy place, but it does work for me. The place is very clean, and the staff are friendly. The breakfast was a bit disappointing as the sausages were rock hard and not editable. My room was very clean and had a coffee maker. I thought the room was priced well. There are better but not at this price point.More</t>
@@ -201,6 +393,12 @@
     <t>I recently checked out of Cottonwood Suites after a 3 night stay.  Most of the staff was quite friendly and helpful, we ran into some who seemed to be overwhelmed.  Based on the breakfast crowd, I’d say the hotel was pretty booked.  Breakfast has both hot and cold options, a coffee/cappuccino maker; plenty of options for everyone. Our room was on the third floor.  Nothing super fancy, the kitchen was a nice bonus and large bathroom.  There’s one elevator in the middle, and two stairwells at each end of the building.  We used the stairs, except for unloading and loading our belongings. Checking in was fine, the girl working the desk seemed overwhelmed and cranky.  Checking out was more pleasant with friendlier staff.  Would stay here again. MoreShow less</t>
   </si>
   <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
     <t>I recently checked out of Cottonwood Suites after a 3 night stay.  Most of the staff was quite friendly and helpful, we ran into some who seemed to be overwhelmed.  Based on the breakfast crowd, I’d say the hotel was pretty booked.  Breakfast has both hot and cold options, a coffee/cappuccino maker; plenty of options for everyone. Our room was on the third floor.  Nothing super fancy, the kitchen was a nice bonus and large bathroom.  There’s one elevator in the middle, and two stairwells at each end of the building.  We used the stairs, except for unloading and loading our belongings. Checking in was fine, the girl working the desk seemed overwhelmed and cranky.  Checking out was more pleasant with friendlier staff.  Would stay here again. More</t>
   </si>
   <si>
@@ -222,18 +420,63 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
   </si>
   <si>
     <t>I've stayed at this hotel several times for work and put up with the obnoxious service and inconsistent housekeeping since it's much less expensive than other hotels in the area and, props where they're due, the best Internet of any place I've stayed.  My last time out though will be my last since the management has seen fit to cover up for their poor service and incompetence by lying about and bad mouthing my family.  I thought it was just me, but my coworkers complained about the poor service there as well and I felt awful since I was the one who got them to stay there.  Needless to say, when the owners/management have no problem lying about a guest in an effort to make themselves look…better, then, well, other areas can become suspect. I should note that during the time at which my coworkers stayed (and which I was supposed to stay) the hotel didn't have water at one point due to a building maintenance issue, but people were still checking in.  I suppose in the end the rude service doesn't matter since the price is so cheap that the place doesn't even have to have water in order to get people to stay there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r590868071-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>590868071</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Rude &amp; hostile management</t>
+  </si>
+  <si>
+    <t>I called the hotel from the airport at 11am  asking for an early check in &amp; the manager advised me that the earliest I could check in was 2pm. At 2pm I arrived &amp; was told that although this was corporate lodging each guest would need to pay a $75 deposit. After paying my deposit &amp; completing my check in at 2:40pm I was given my room key. I have never experienced a 40 minute check in with such a rude group of employees. At this point I was frustrated &amp; just wanted to get to my room. The manager then stopped me &amp; told me she did not appreciate my "attitude" &amp; then proceeded to cancel my reservation. I asked for my deposit to be reversed &amp; she warned me to never contact the hotel again. I still haven't received my deposit back &amp; the headquarters for  ramada has not returned my call. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>I called the hotel from the airport at 11am  asking for an early check in &amp; the manager advised me that the earliest I could check in was 2pm. At 2pm I arrived &amp; was told that although this was corporate lodging each guest would need to pay a $75 deposit. After paying my deposit &amp; completing my check in at 2:40pm I was given my room key. I have never experienced a 40 minute check in with such a rude group of employees. At this point I was frustrated &amp; just wanted to get to my room. The manager then stopped me &amp; told me she did not appreciate my "attitude" &amp; then proceeded to cancel my reservation. I asked for my deposit to be reversed &amp; she warned me to never contact the hotel again. I still haven't received my deposit back &amp; the headquarters for  ramada has not returned my call. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r588535233-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>588535233</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Don't try and Stay if you have a Service Dog</t>
+  </si>
+  <si>
+    <t>My husband has stayed here often for business I decided to go with him this time I have an invisible disability and have a Dr prescribed  Fully task trained  Service Dog . Hotel management staff apparently also have doctorates and are SD trainers as they deemed my Service Dog an ESA and not an SD  and intended to charge us a pet fee . They continually stated that my type of service dog was not covered by the ADA and neither is PTSD . We canceled the rest of our stay with them . I filed a complaint with DOJ for ADA violation and discrimination. they Did say they would  refund full stay amount but until I see full refund on CC I'm not fully convinced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>My husband has stayed here often for business I decided to go with him this time I have an invisible disability and have a Dr prescribed  Fully task trained  Service Dog . Hotel management staff apparently also have doctorates and are SD trainers as they deemed my Service Dog an ESA and not an SD  and intended to charge us a pet fee . They continually stated that my type of service dog was not covered by the ADA and neither is PTSD . We canceled the rest of our stay with them . I filed a complaint with DOJ for ADA violation and discrimination. they Did say they would  refund full stay amount but until I see full refund on CC I'm not fully convinced.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r586040213-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -273,9 +516,6 @@
     <t>This was an amazing hotel to stay at. It was very clean, the staff was friendly and the breakfast was delicious. I would recommend staying here and I would gladly stay here again. I was very impressed!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 6, 2018</t>
   </si>
   <si>
@@ -300,9 +540,6 @@
     <t>nice room but small. clean room , very good breakfast changes daily, after paying, in advance, for the room I had to put down a $75 room deposit in case of damage.??? I was told if there was no damage the deposit would be returned in 4 days. (is that something new). wish i would have made them inspect the room before I left it. other than that I would stay there again. Had a couple small issues , the door safety lock didn't work and there is a lack of available outlets for electronic chargers.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded June 4, 2018</t>
   </si>
   <si>
@@ -312,6 +549,45 @@
     <t>nice room but small. clean room , very good breakfast changes daily, after paying, in advance, for the room I had to put down a $75 room deposit in case of damage.??? I was told if there was no damage the deposit would be returned in 4 days. (is that something new). wish i would have made them inspect the room before I left it. other than that I would stay there again. Had a couple small issues , the door safety lock didn't work and there is a lack of available outlets for electronic chargers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r583046669-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>583046669</t>
+  </si>
+  <si>
+    <t>Love this hotel</t>
+  </si>
+  <si>
+    <t>Wonderful staff, especially the GM Michelle. The hotel is clean, even the elevator tracks. The rooms are comfortable and very inviting. The breakfast is absolutely fabulous. I love that the menu changes daily and that there is plenty out to feed even the buisiest of times for breakfast. I love this hotel and have and will stay more.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r582890262-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>582890262</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>WOW.. is all</t>
+  </si>
+  <si>
+    <t>I booked this place without reading all the reviews... is o e thing I usually don't do.. But after I did I finished reading them all and was scared to death.. So many people were  charged for the slightest thing under the sun... to wet of a towel makeup on a wash cloth if it's not one thing another... So we were so scared to even do anything. So we went and bought our own..also I vested in a Clorox pen. The only other thing I noticed it was so dam noise it's not funny... I stayed on the second floor and heard every foot step and conversation above us and to each side.... But I made it through with out a extra charge.... But it is in a good location for food....MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle H, General Manager at Cottonwood Suites Westminster, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>I booked this place without reading all the reviews... is o e thing I usually don't do.. But after I did I finished reading them all and was scared to death.. So many people were  charged for the slightest thing under the sun... to wet of a towel makeup on a wash cloth if it's not one thing another... So we were so scared to even do anything. So we went and bought our own..also I vested in a Clorox pen. The only other thing I noticed it was so dam noise it's not funny... I stayed on the second floor and heard every foot step and conversation above us and to each side.... But I made it through with out a extra charge.... But it is in a good location for food....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r582744442-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -325,9 +601,6 @@
   </si>
   <si>
     <t>They were very pleasant I was extremely late and they were very receiving the rooms were clean and the people there were extremely nice their breakfast were amazing thank you. Did not expect scrambled eggs sausage waffles cereal it was just really good and the price was amazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d1146321-r582058093-Cottonwood_Suites_Westminster-Westminster_Colorado.html</t>
@@ -877,40 +1150,42 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -926,7 +1201,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -935,25 +1210,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -965,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
         <v>61</v>
@@ -1008,35 +1283,35 @@
         <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
         <v>69</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1052,7 +1327,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1061,25 +1336,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1134,24 +1409,20 @@
         <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
         <v>85</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1199,37 +1470,27 @@
         <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1254,25 +1515,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
         <v>99</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1283,10 +1544,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1323,13 +1588,13 @@
         <v>108</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1350,6 +1615,750 @@
         <v>111</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58455</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>